--- a/Multiple1.xlsx
+++ b/Multiple1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Documents\TOP SECRET\wichtige Dokumente\100 days of code\Day 11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B5443E-CD6E-4B74-B080-F98D5A719C85}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727648F4-AE4D-4580-BC22-B719C8C68E9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{6C3D0721-7FED-4390-99CA-DAB536B1332E}"/>
   </bookViews>
@@ -25,158 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Growth rate</t>
   </si>
   <si>
-    <t>1971-12-01</t>
-  </si>
-  <si>
-    <t>1972-12-01</t>
-  </si>
-  <si>
-    <t>1973-12-01</t>
-  </si>
-  <si>
-    <t>1974-12-01</t>
-  </si>
-  <si>
-    <t>1975-12-01</t>
-  </si>
-  <si>
-    <t>1976-12-01</t>
-  </si>
-  <si>
-    <t>1977-12-01</t>
-  </si>
-  <si>
-    <t>1978-12-01</t>
-  </si>
-  <si>
-    <t>1979-12-01</t>
-  </si>
-  <si>
-    <t>1980-12-01</t>
-  </si>
-  <si>
-    <t>1981-12-01</t>
-  </si>
-  <si>
-    <t>1982-12-01</t>
-  </si>
-  <si>
-    <t>1983-12-01</t>
-  </si>
-  <si>
-    <t>1984-12-01</t>
-  </si>
-  <si>
-    <t>1985-12-01</t>
-  </si>
-  <si>
-    <t>1986-12-01</t>
-  </si>
-  <si>
-    <t>1987-12-01</t>
-  </si>
-  <si>
-    <t>1988-12-01</t>
-  </si>
-  <si>
-    <t>1989-12-01</t>
-  </si>
-  <si>
-    <t>1990-12-01</t>
-  </si>
-  <si>
-    <t>1991-12-01</t>
-  </si>
-  <si>
-    <t>1992-12-01</t>
-  </si>
-  <si>
-    <t>1993-12-01</t>
-  </si>
-  <si>
-    <t>1994-12-01</t>
-  </si>
-  <si>
-    <t>1995-12-01</t>
-  </si>
-  <si>
-    <t>1996-12-01</t>
-  </si>
-  <si>
-    <t>1997-12-01</t>
-  </si>
-  <si>
-    <t>1998-12-01</t>
-  </si>
-  <si>
-    <t>1999-12-01</t>
-  </si>
-  <si>
-    <t>2000-12-01</t>
-  </si>
-  <si>
-    <t>2001-12-01</t>
-  </si>
-  <si>
-    <t>2002-12-01</t>
-  </si>
-  <si>
-    <t>2003-12-01</t>
-  </si>
-  <si>
-    <t>2004-12-01</t>
-  </si>
-  <si>
-    <t>2005-12-01</t>
-  </si>
-  <si>
-    <t>2006-12-01</t>
-  </si>
-  <si>
-    <t>2007-12-01</t>
-  </si>
-  <si>
-    <t>2008-12-01</t>
-  </si>
-  <si>
-    <t>2009-12-01</t>
-  </si>
-  <si>
-    <t>2010-12-01</t>
-  </si>
-  <si>
-    <t>2011-12-01</t>
-  </si>
-  <si>
-    <t>2012-12-01</t>
-  </si>
-  <si>
-    <t>2013-12-01</t>
-  </si>
-  <si>
-    <t>2014-12-01</t>
-  </si>
-  <si>
-    <t>2015-12-01</t>
-  </si>
-  <si>
-    <t>2016-12-01</t>
-  </si>
-  <si>
-    <t>2017-12-01</t>
-  </si>
-  <si>
-    <t>2018-12-01</t>
-  </si>
-  <si>
-    <t>FDI (Bil USD)</t>
-  </si>
-  <si>
     <t>Export (Bil USD)</t>
   </si>
   <si>
@@ -184,6 +37,150 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>1971-12-31</t>
+  </si>
+  <si>
+    <t>1972-12-31</t>
+  </si>
+  <si>
+    <t>1973-12-31</t>
+  </si>
+  <si>
+    <t>1974-12-31</t>
+  </si>
+  <si>
+    <t>1975-12-31</t>
+  </si>
+  <si>
+    <t>1976-12-31</t>
+  </si>
+  <si>
+    <t>1977-12-31</t>
+  </si>
+  <si>
+    <t>1978-12-31</t>
+  </si>
+  <si>
+    <t>1979-12-31</t>
+  </si>
+  <si>
+    <t>1980-12-31</t>
+  </si>
+  <si>
+    <t>1981-12-31</t>
+  </si>
+  <si>
+    <t>1982-12-31</t>
+  </si>
+  <si>
+    <t>1983-12-31</t>
+  </si>
+  <si>
+    <t>1984-12-31</t>
+  </si>
+  <si>
+    <t>1985-12-31</t>
+  </si>
+  <si>
+    <t>1986-12-31</t>
+  </si>
+  <si>
+    <t>1987-12-31</t>
+  </si>
+  <si>
+    <t>1988-12-31</t>
+  </si>
+  <si>
+    <t>1989-12-31</t>
+  </si>
+  <si>
+    <t>1990-12-31</t>
+  </si>
+  <si>
+    <t>1991-12-31</t>
+  </si>
+  <si>
+    <t>1992-12-31</t>
+  </si>
+  <si>
+    <t>1993-12-31</t>
+  </si>
+  <si>
+    <t>1994-12-31</t>
+  </si>
+  <si>
+    <t>1995-12-31</t>
+  </si>
+  <si>
+    <t>1996-12-31</t>
+  </si>
+  <si>
+    <t>1997-12-31</t>
+  </si>
+  <si>
+    <t>1998-12-31</t>
+  </si>
+  <si>
+    <t>1999-12-31</t>
+  </si>
+  <si>
+    <t>2000-12-31</t>
+  </si>
+  <si>
+    <t>2001-12-31</t>
+  </si>
+  <si>
+    <t>2002-12-31</t>
+  </si>
+  <si>
+    <t>2003-12-31</t>
+  </si>
+  <si>
+    <t>2004-12-31</t>
+  </si>
+  <si>
+    <t>2005-12-31</t>
+  </si>
+  <si>
+    <t>2006-12-31</t>
+  </si>
+  <si>
+    <t>2007-12-31</t>
+  </si>
+  <si>
+    <t>2008-12-31</t>
+  </si>
+  <si>
+    <t>2009-12-31</t>
+  </si>
+  <si>
+    <t>2010-12-31</t>
+  </si>
+  <si>
+    <t>2011-12-31</t>
+  </si>
+  <si>
+    <t>2012-12-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
   </si>
 </sst>
 </file>
@@ -548,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F06A242-B9AD-4BD5-8BF9-6EBBA1E21B71}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -559,836 +556,689 @@
     <col min="2" max="2" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1">
         <v>6.7207561117916523E-2</v>
       </c>
       <c r="C2">
-        <v>1.1033387549577001</v>
+        <v>36.398285284113001</v>
       </c>
       <c r="D2">
-        <v>36.398285284113001</v>
-      </c>
-      <c r="E2">
         <v>40.706506440639998</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1">
         <v>0.10430787726127769</v>
       </c>
       <c r="C3">
-        <v>1.8972706955609</v>
+        <v>43.630361283199001</v>
       </c>
       <c r="D3">
-        <v>43.630361283199001</v>
-      </c>
-      <c r="E3">
         <v>48.506788321168003</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1">
         <v>9.7270354405509546E-2</v>
       </c>
       <c r="C4">
-        <v>2.1023023433405998</v>
+        <v>61.171397731431</v>
       </c>
       <c r="D4">
-        <v>61.171397731431</v>
-      </c>
-      <c r="E4">
         <v>65.125982436881998</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1">
         <v>9.9476056391261738E-2</v>
       </c>
       <c r="C5">
-        <v>2.1769923443836001</v>
+        <v>81.209935001133999</v>
       </c>
       <c r="D5">
-        <v>81.209935001133999</v>
-      </c>
-      <c r="E5">
         <v>83.342709545763995</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1">
         <v>9.5060792069422639E-2</v>
       </c>
       <c r="C6">
-        <v>0.6904968228767</v>
+        <v>83.951059702679004</v>
       </c>
       <c r="D6">
-        <v>83.951059702679004</v>
-      </c>
-      <c r="E6">
         <v>92.221047778043001</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1">
         <v>9.7774307217805542E-2</v>
       </c>
       <c r="C7">
-        <v>1.3213699375521</v>
+        <v>93.928512505826006</v>
       </c>
       <c r="D7">
-        <v>93.928512505826006</v>
-      </c>
-      <c r="E7">
         <v>105.50200170887</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1">
         <v>9.9440947386857992E-2</v>
       </c>
       <c r="C8">
-        <v>0.9499838085865</v>
+        <v>107.96932620231</v>
       </c>
       <c r="D8">
-        <v>107.96932620231</v>
-      </c>
-      <c r="E8">
         <v>120.84428535332</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1">
         <v>0.10867144485066399</v>
       </c>
       <c r="C9">
-        <v>1.6034589330075999</v>
+        <v>130.59479065239</v>
       </c>
       <c r="D9">
-        <v>130.59479065239</v>
-      </c>
-      <c r="E9">
         <v>144.71633885102</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1">
         <v>0.12749869136240544</v>
       </c>
       <c r="C10">
-        <v>1.7325523040216</v>
+        <v>157.09645715504999</v>
       </c>
       <c r="D10">
-        <v>157.09645715504999</v>
-      </c>
-      <c r="E10">
         <v>188.60742823605</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1">
         <v>9.2643069488479321E-2</v>
       </c>
       <c r="C11">
-        <v>-0.1865734011811</v>
+        <v>176.95578868087</v>
       </c>
       <c r="D11">
-        <v>176.95578868087</v>
-      </c>
-      <c r="E11">
         <v>220.7796191091</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1">
         <v>9.634718359059323E-2</v>
       </c>
       <c r="C12">
-        <v>-0.41583955959360003</v>
+        <v>161.17372912158999</v>
       </c>
       <c r="D12">
-        <v>161.17372912158999</v>
-      </c>
-      <c r="E12">
         <v>192.49982085676999</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1">
         <v>4.2083174112415737E-2</v>
       </c>
       <c r="C13">
-        <v>0.46826369513549998</v>
+        <v>162.07156927541001</v>
       </c>
       <c r="D13">
-        <v>162.07156927541001</v>
-      </c>
-      <c r="E13">
         <v>182.63412267269001</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B14" s="1">
         <v>6.6370321600721649E-2</v>
       </c>
       <c r="C14">
-        <v>0.99785544693259998</v>
+        <v>156.38268785906001</v>
       </c>
       <c r="D14">
-        <v>156.38268785906001</v>
-      </c>
-      <c r="E14">
         <v>179.44741937955001</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B15" s="1">
         <v>6.9667955221970584E-2</v>
       </c>
       <c r="C15">
-        <v>0.59066440697209999</v>
+        <v>157.53451446636001</v>
       </c>
       <c r="D15">
-        <v>157.53451446636001</v>
-      </c>
-      <c r="E15">
         <v>177.77612741391999</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B16" s="1">
         <v>5.2418349481844206E-2</v>
       </c>
       <c r="C16">
-        <v>0.53110842898400001</v>
+        <v>168.03620515546001</v>
       </c>
       <c r="D16">
-        <v>168.03620515546001</v>
-      </c>
-      <c r="E16">
         <v>182.96045110284001</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B17" s="1">
         <v>4.2018126657502756E-2</v>
       </c>
       <c r="C17">
-        <v>1.1920245997296</v>
+        <v>222.71870125191001</v>
       </c>
       <c r="D17">
-        <v>222.71870125191001</v>
-      </c>
-      <c r="E17">
         <v>226.59353147798001</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B18" s="1">
         <v>4.9662920412573593E-2</v>
       </c>
       <c r="C18">
-        <v>1.6201706565784999</v>
+        <v>268.50218933624001</v>
       </c>
       <c r="D18">
-        <v>268.50218933624001</v>
-      </c>
-      <c r="E18">
         <v>272.70054951034001</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B19" s="1">
         <v>7.2240452939888483E-2</v>
       </c>
       <c r="C19">
-        <v>-1.5085746206799999</v>
+        <v>295.52132976946001</v>
       </c>
       <c r="D19">
-        <v>295.52132976946001</v>
-      </c>
-      <c r="E19">
         <v>300.37445261164999</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B20" s="1">
         <v>7.2886752565228585E-2</v>
       </c>
       <c r="C20">
-        <v>5.1734264852861997</v>
+        <v>311.96442109642999</v>
       </c>
       <c r="D20">
-        <v>311.96442109642999</v>
-      </c>
-      <c r="E20">
         <v>320.59154894414002</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B21" s="1">
         <v>0.1069553864605525</v>
       </c>
       <c r="C21">
-        <v>2.5567028456115</v>
+        <v>404.57594116935002</v>
       </c>
       <c r="D21">
-        <v>404.57594116935002</v>
-      </c>
-      <c r="E21">
         <v>407.97603437841002</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B22" s="1">
         <v>6.4660876499981257E-2</v>
       </c>
       <c r="C22">
-        <v>4.7415349335451999</v>
+        <v>442.28403064230997</v>
       </c>
       <c r="D22">
-        <v>442.28403064230997</v>
-      </c>
-      <c r="E22">
         <v>451.39658220388998</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B23" s="1">
         <v>2.6242946813030448E-2</v>
       </c>
       <c r="C23">
-        <v>-2.1377284344190999</v>
+        <v>473.09580463369002</v>
       </c>
       <c r="D23">
-        <v>473.09580463369002</v>
-      </c>
-      <c r="E23">
         <v>483.78459611772001</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B24" s="1">
         <v>2.1155923145264287E-2</v>
       </c>
       <c r="C24">
-        <v>0.47981418925280001</v>
+        <v>420.75712764699</v>
       </c>
       <c r="D24">
-        <v>420.75712764699</v>
-      </c>
-      <c r="E24">
         <v>419.71844315627999</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B25" s="1">
         <v>5.8351100602765528E-2</v>
       </c>
       <c r="C25">
-        <v>7.5172487511165</v>
+        <v>465.50680969025001</v>
       </c>
       <c r="D25">
-        <v>465.50680969025001</v>
-      </c>
-      <c r="E25">
         <v>461.90068699530002</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B26" s="1">
         <v>2.7970629546262771E-2</v>
       </c>
       <c r="C26">
-        <v>12.041505212641001</v>
+        <v>568.72526272690004</v>
       </c>
       <c r="D26">
-        <v>568.72526272690004</v>
-      </c>
-      <c r="E26">
         <v>558.20526818615997</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B27" s="1">
         <v>2.8433737166039842E-2</v>
       </c>
       <c r="C27">
-        <v>15.591797828854</v>
+        <v>570.87080842215005</v>
       </c>
       <c r="D27">
-        <v>570.87080842215005</v>
-      </c>
-      <c r="E27">
         <v>553.02963348062997</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B28" s="1">
         <v>2.3518637283550754E-2</v>
       </c>
       <c r="C28">
-        <v>18.638443893681</v>
+        <v>560.96661403113001</v>
       </c>
       <c r="D28">
-        <v>560.96661403113001</v>
-      </c>
-      <c r="E28">
         <v>537.12384389804004</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B29" s="1">
         <v>2.281437978357367E-2</v>
       </c>
       <c r="C29">
-        <v>29.526509277456999</v>
+        <v>591.24819384239004</v>
       </c>
       <c r="D29">
-        <v>591.24819384239004</v>
-      </c>
-      <c r="E29">
         <v>563.73457819273005</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B30" s="1">
         <v>4.777896169587928E-2</v>
       </c>
       <c r="C30">
-        <v>86.035665071208996</v>
+        <v>591.54059237162005</v>
       </c>
       <c r="D30">
-        <v>591.54059237162005</v>
-      </c>
-      <c r="E30">
         <v>579.41508629873999</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B31" s="1">
         <v>2.9963499431697741E-2</v>
       </c>
       <c r="C31">
-        <v>248.00739712186001</v>
+        <v>599.41588354524004</v>
       </c>
       <c r="D31">
-        <v>599.41588354524004</v>
-      </c>
-      <c r="E31">
         <v>596.12493090104999</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B32" s="1">
         <v>4.8936065880111936E-2</v>
       </c>
       <c r="C32">
-        <v>56.948542386908002</v>
+        <v>619.09530201342</v>
       </c>
       <c r="D32">
-        <v>619.09530201342</v>
-      </c>
-      <c r="E32">
         <v>587.47293064876999</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B33" s="1">
         <v>3.4361101752021554E-2</v>
       </c>
       <c r="C33">
-        <v>51.268214890625003</v>
+        <v>674.21795595709</v>
       </c>
       <c r="D33">
-        <v>674.21795595709</v>
-      </c>
-      <c r="E33">
         <v>586.29587803500999</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B34" s="1">
         <v>2.8099090101046938E-2</v>
       </c>
       <c r="C34">
-        <v>65.401516009250003</v>
+        <v>819.02257336342996</v>
       </c>
       <c r="D34">
-        <v>819.02257336342996</v>
-      </c>
-      <c r="E34">
         <v>724.81602708803996</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B35" s="1">
         <v>3.0134677334397945E-2</v>
       </c>
       <c r="C35">
-        <v>-20.408419557142999</v>
+        <v>1003.2555252049</v>
       </c>
       <c r="D35">
-        <v>1003.2555252049</v>
-      </c>
-      <c r="E35">
         <v>857.16290042214996</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B36" s="1">
         <v>2.9652975985433653E-2</v>
       </c>
       <c r="C36">
-        <v>59.835195025192</v>
+        <v>1083.1003606516999</v>
       </c>
       <c r="D36">
-        <v>1083.1003606516999</v>
-      </c>
-      <c r="E36">
         <v>935.10633005845</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B37" s="1">
         <v>8.3938275375641677E-2</v>
       </c>
       <c r="C37">
-        <v>87.444159239062003</v>
+        <v>1239.7541086438</v>
       </c>
       <c r="D37">
-        <v>1239.7541086438</v>
-      </c>
-      <c r="E37">
         <v>1077.6941412620999</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B38" s="1">
         <v>5.1962385416856827E-2</v>
       </c>
       <c r="C38">
-        <v>50.847183837015002</v>
+        <v>1482.1708185053001</v>
       </c>
       <c r="D38">
-        <v>1482.1708185053001</v>
-      </c>
-      <c r="E38">
         <v>1250.5160142349</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B39" s="1">
         <v>1.9365585514253835E-2</v>
       </c>
       <c r="C39">
-        <v>30.954735498024998</v>
+        <v>1633.7219862310999</v>
       </c>
       <c r="D39">
-        <v>1633.7219862310999</v>
-      </c>
-      <c r="E39">
         <v>1407.1759191445999</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B40" s="1">
         <v>-1.0597778163970504E-2</v>
       </c>
       <c r="C40">
-        <v>56.701916794970003</v>
+        <v>1295.234787441</v>
       </c>
       <c r="D40">
-        <v>1295.234787441</v>
-      </c>
-      <c r="E40">
         <v>1124.9680466796001</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B41" s="1">
         <v>6.4754449646430914E-2</v>
       </c>
       <c r="C41">
-        <v>86.037502102165007</v>
+        <v>1445.6741908192</v>
       </c>
       <c r="D41">
-        <v>1445.6741908192</v>
-      </c>
-      <c r="E41">
         <v>1266.9470837186</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B42" s="1">
         <v>5.2953759225971266E-2</v>
       </c>
       <c r="C42">
-        <v>97.535403952549999</v>
+        <v>1687.1232870142001</v>
       </c>
       <c r="D42">
-        <v>1687.1232870142001</v>
-      </c>
-      <c r="E42">
         <v>1503.3420477215</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B43" s="1">
         <v>2.4828524886877791E-2</v>
       </c>
       <c r="C43">
-        <v>65.443087632271002</v>
+        <v>1633.4118611437</v>
       </c>
       <c r="D43">
-        <v>1633.4118611437</v>
-      </c>
-      <c r="E43">
         <v>1418.2372796028001</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B44" s="1">
         <v>5.4113738855524479E-2</v>
       </c>
       <c r="C44">
-        <v>67.199694458937003</v>
+        <v>1695.3627211557</v>
       </c>
       <c r="D44">
-        <v>1695.3627211557</v>
-      </c>
-      <c r="E44">
         <v>1480.4134728402</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B45" s="1">
         <v>3.9246325155574656E-2</v>
       </c>
       <c r="C45">
-        <v>19.488312315415001</v>
+        <v>1771.8157625045001</v>
       </c>
       <c r="D45">
-        <v>1771.8157625045001</v>
-      </c>
-      <c r="E45">
         <v>1514.7611001938999</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B46" s="1">
         <v>2.3447900504673366E-2</v>
       </c>
       <c r="C46">
-        <v>62.422464518939996</v>
+        <v>1574.7705733611001</v>
       </c>
       <c r="D46">
-        <v>1574.7705733611001</v>
-      </c>
-      <c r="E46">
         <v>1319.8560105627</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B47" s="1">
         <v>5.4815084027969037E-2</v>
       </c>
       <c r="C47">
-        <v>64.707795193364007</v>
+        <v>1597.5894689784</v>
       </c>
       <c r="D47">
-        <v>1597.5894689784</v>
-      </c>
-      <c r="E47">
         <v>1341.7963113338001</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B48" s="1">
         <v>5.8762698155743455E-2</v>
       </c>
       <c r="C48">
-        <v>118.22559010265</v>
+        <v>1738.3420975412</v>
       </c>
       <c r="D48">
-        <v>1738.3420975412</v>
-      </c>
-      <c r="E48">
         <v>1480.6832851306001</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B49" s="1">
         <v>2.5182765579363508E-2</v>
       </c>
       <c r="C49">
-        <v>167.95592819897999</v>
+        <v>1877.7377468149</v>
       </c>
       <c r="D49">
-        <v>1877.7377468149</v>
-      </c>
-      <c r="E49">
         <v>1634.0170788995999</v>
       </c>
     </row>
